--- a/plan/life_sensibility/2016/12.xlsx
+++ b/plan/life_sensibility/2016/12.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
   <si>
     <t>恶性循环如何打破，唯有改变</t>
+  </si>
+  <si>
+    <t>他们用甜言蜜语安抚不安的人心，是因为他们害怕不安的人们撬动他们拥有的一切</t>
   </si>
 </sst>
 </file>
@@ -26,12 +29,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +43,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -47,10 +58,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,37 +119,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,14 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -122,9 +158,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,60 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +196,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +387,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,6 +416,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,21 +453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -453,21 +464,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,154 +492,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -989,13 +988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
   </cols>
@@ -1003,6 +1002,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/2016/12.xlsx
+++ b/plan/life_sensibility/2016/12.xlsx
@@ -16,12 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>恶性循环如何打破，唯有改变</t>
   </si>
   <si>
     <t>他们用甜言蜜语安抚不安的人心，是因为他们害怕不安的人们撬动他们拥有的一切</t>
+  </si>
+  <si>
+    <t>别人的父母想着怎样才能多赚钱，怎样才能建设好自己的家庭，怎
+样才能不给自己的子女添麻烦，我的父母整体想着自己为这个家庭
+付出了多少，受了多少苦，母亲整天沉浸在自己的苦难故事中，固
+执己见，无法自拔。父亲头脑简单，不操心任何事情，却又小肚鸡
+肠，对于吃喝的小事斤斤计较。生活在这样的家庭中，我感到深深
+的不幸，更感到无力。如今我已为人父，我只想创建一个好的家庭
+环境，让我的子女不受父母的吵闹，而影响其性格</t>
+  </si>
+  <si>
+    <t>自动读字机，能自己识别出文字，并读出来
+写一段别人的父母是如何对待苦难的，制作成音频，放给父母听，
+希望他们不要只是生活在自己的故事里</t>
+  </si>
+  <si>
+    <t>自媒体，自嘲
+自我介绍
+很多朋友听了老师的视频后，觉得老湿很神秘，其实不然，老师只是
+芸芸众生中的一员，那么今天老湿就来从上到下的介绍一下自己。快
+看，这是老湿的胸肌，这是二头肌，这是一整块腹肌，下面是老湿的
+大腿肌，小腿肌，当然还有鸡肌。好了，很多朋友有会问了，老湿，
+你的尊容呢？额，这个老湿当然是不能暴露的，你们可以把老湿想象
+成他(刘德华),想象成他(张学友),或者是他(吴京)，但你们绝对不可以
+把老湿想象成她(刘亦菲)(这里向男神们和女神致敬),额，因为老湿是
+公的。还有一个不能暴露的重要原因是，老湿其实是某游戏公司的一名
+程序员，而且是一名表现的很斯文的程序员，万一被同事发现了，老湿
+就有辱斯文了，虽然实际上，老湿是白天斯文，夜晚狂野，好了，今天
+老湿的自我介绍就到这里了。</t>
   </si>
 </sst>
 </file>
@@ -29,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -51,6 +80,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -58,6 +126,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -66,11 +162,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,7 +186,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -91,89 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,175 +237,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +434,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -420,6 +458,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -431,24 +478,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,139 +536,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -988,15 +1020,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="1" max="1" width="60.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1007,6 +1039,21 @@
     <row r="2" ht="27" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="175.5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/2016/12.xlsx
+++ b/plan/life_sensibility/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>恶性循环如何打破，唯有改变</t>
   </si>
@@ -25,7 +25,7 @@
   </si>
   <si>
     <t>别人的父母想着怎样才能多赚钱，怎样才能建设好自己的家庭，怎
-样才能不给自己的子女添麻烦，我的父母整体想着自己为这个家庭
+样才能不给自己的子女添麻烦，我的父母总是想着自己为这个家庭
 付出了多少，受了多少苦，母亲整天沉浸在自己的苦难故事中，固
 执己见，无法自拔。父亲头脑简单，不操心任何事情，却又小肚鸡
 肠，对于吃喝的小事斤斤计较。生活在这样的家庭中，我感到深深
@@ -52,15 +52,41 @@
 就有辱斯文了，虽然实际上，老湿是白天斯文，夜晚狂野，好了，今天
 老湿的自我介绍就到这里了。</t>
   </si>
+  <si>
+    <t>宝宝今天的病情有加重了，老婆打电话给我说宝宝做雾化不配合，西乡人民
+医院的医生建议住院治疗，老婆不太想宝宝住院，说要去一趟妇幼保健医院
+重新看一下。
+于是我和项目经理请了一天调休假，他叹了口气，很不情愿地
+挥了挥手，说到：去吧去吧。在他们眼里工作才是最重要的，你的事情其实
+他们不关心。也罢，其实我来这个公司，也感觉到被骗了，进来没多久，项
+目就被干掉了，然后我们被无情的分到其他组，开始每天上班到晚上10点的
+节奏，我进来已经三个多月了，期间多次跟人事提过:我现在算正式员工还
+是算试用期员工，人事都含糊其辞。很明显这是想裁掉我，但又还没有找到
+合适的理由。在新的项目组呆了一段时间，慢慢地发现这里其实学不到技术，主程不管框架，不管性能，却不玩逻辑，管理混乱，人与人大部分时候都是扯皮，扔皮球，这里唯一好的地方就是项目ip很好，在腾讯上线测试的反响很好，但其实这跟我没有太大的关系，就算正式上线后，收益很好，我
+也分不到钱，毕竟我进这个项目组才1个月。但是它已经严重影响了我的生活
+，当工作影响了生活了，就该放弃这份工作，毕竟我是为了生活，而不是工作。过完年就放弃这份工作，重新找一份。
+我抱着宝宝和老婆一起来到妇幼保健医院，前台告诉我们说儿科今天没有专家号了，要我们儿科急诊挂号。我们去了儿科急诊挂号，在我们号的前面还有30多个人，并且只有一个医生，那个医生就是我们前天晚上11点等了一个多小时才给宝宝看病的那个医生。干等不是办法，于是我们去了儿科，问了
+一下导诊的妹子，妹子也说今天没有医生有号了，老婆多问了一句：有没有什么办法让医生在加一个号吗？妹子说：你们去问下那些医生，如果他们愿意加，那当然可以。皇天不负有心人，问了几个医生后，终于有个医生愿意
+给我们加个号，于是很快就轮到我们就诊，如果干等，真不知道要等到什么时候。很多时候，多问一句，就会得到我们想要的结果，虽然这期间会受尽人情冷暖。
+就诊的结果是急性咽喉支气管炎，还查出了宝宝贫血，等宝宝的病好了，还要去做一次检查，看看究竟是什么原因贫血</t>
+  </si>
+  <si>
+    <t>面试自白
+我一共参与过四款游戏的开发，2013年6月份到2014年3月在北京迈极客网络技术有限公司负责游戏&lt;魔力传说&gt;整个服务端的开发
+2014年5月到2016年8在深圳市牛蛙互动网络技术有限公司，参与&lt;暗黑召唤神&gt;的开发，游戏的部分逻辑，后台管理工具的搭建，sdk平台接入，压力测试工具开发
+第三款参与&lt;西域英雄&gt;的开发，游戏的部分逻辑，框架搭建，后台管理工具的搭建，sdk平台接入，微信公众好接入，压力测试工具开发
+2016年9月在深圳第七大道手游弹弹堂项目组，负责小部分逻辑开发，压测工具开发
+然后我说下自己对做服务器的看法，服务器主要做三个方面的事情，游戏框架和逻辑，后台管理工具，压测工具。压测工具主要用来测试服务器端的稳定性和性能，服务器端的性能优化主要包括代码优化，循环语句检查，看看这个循环语句的时间的复杂度是否过大，代码中尽量减少对象拷贝，sql语句优化，测试在表数据很大的情况下，sql语句的执行时间如果很长，那么需要对sql语句做优化</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -72,9 +98,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,6 +145,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -96,37 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,6 +199,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,7 +213,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,61 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +251,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,19 +347,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,145 +407,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,21 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +465,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +508,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -496,26 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="60.25" customWidth="1"/>
+    <col min="1" max="1" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1042,18 +1068,28 @@
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="175.5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="378" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="216" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/2016/12.xlsx
+++ b/plan/life_sensibility/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>恶性循环如何打破，唯有改变</t>
   </si>
@@ -78,16 +78,21 @@
 2016年9月在深圳第七大道手游弹弹堂项目组，负责小部分逻辑开发，压测工具开发
 然后我说下自己对做服务器的看法，服务器主要做三个方面的事情，游戏框架和逻辑，后台管理工具，压测工具。压测工具主要用来测试服务器端的稳定性和性能，服务器端的性能优化主要包括代码优化，循环语句检查，看看这个循环语句的时间的复杂度是否过大，代码中尽量减少对象拷贝，sql语句优化，测试在表数据很大的情况下，sql语句的执行时间如果很长，那么需要对sql语句做优化</t>
   </si>
+  <si>
+    <t>垃圾公司，上班上到晚上10点，还要开20分钟的会，程序居然还要留一部分
+人下来值夜班。其他组的人居然五十步笑百步，心灾乐祸，早点离开这个坑，
+才是王道</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,7 +104,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,15 +120,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,11 +157,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,8 +194,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,83 +225,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +256,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,7 +280,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,25 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,37 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,85 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,11 +450,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +476,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,30 +539,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -518,30 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="64.25" customWidth="1"/>
   </cols>
@@ -1083,13 +1088,18 @@
       </c>
     </row>
     <row r="6" ht="378" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="216" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/2016/12.xlsx
+++ b/plan/life_sensibility/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>恶性循环如何打破，唯有改变</t>
   </si>
@@ -83,16 +83,28 @@
 人下来值夜班。其他组的人居然五十步笑百步，心灾乐祸，早点离开这个坑，
 才是王道</t>
   </si>
+  <si>
+    <t>遇到问题要及时拿出来沟通,自己解决不了，别人可以解决，至少也要让给你
+任务的人知道当前卡在哪里了，让他来协调人手解决。接手问题时，要阐明问
+题的难点，难的东西做出来了，别人才会对你高看三分</t>
+  </si>
+  <si>
+    <t>压力测试连接总是被断开的原因：服务器对包做了加解密处理
+，服务器对收到的第一包没有处理完，client就发第二包，就会被服务器断掉
+。1000人1秒发一个包，相当于服务器1秒要处理1000个包，服务器在1s处理
+不过来，有的client就已经发送第二包过来，导致连接被服务器断掉。
+改成：不要加密，5s发一个包，暂时可以解决此问题</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,25 +116,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,8 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,20 +238,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,68 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +268,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,19 +406,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,133 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,21 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,23 +489,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,8 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,13 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="64.25" customWidth="1"/>
   </cols>
@@ -1098,8 +1110,18 @@
       </c>
     </row>
     <row r="8" ht="54" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/plan/life_sensibility/2016/12.xlsx
+++ b/plan/life_sensibility/2016/12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18585" windowHeight="7440"/>
+    <workbookView windowWidth="18555" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>恶性循环如何打破，唯有改变</t>
   </si>
@@ -95,6 +95,13 @@
 不过来，有的client就已经发送第二包过来，导致连接被服务器断掉。
 改成：不要加密，5s发一个包，暂时可以解决此问题</t>
   </si>
+  <si>
+    <t>mysql里的函数对主键没有效果，查询的时候使用函数，如果表数据量大，基
+本卡成狗</t>
+  </si>
+  <si>
+    <t>每个地方都有地盘管理，你在他的地盘上做生意，如果他不乐意，他就会搞你</t>
+  </si>
 </sst>
 </file>
 
@@ -116,15 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,34 +132,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,15 +146,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,17 +206,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,47 +228,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,37 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +532,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1115,13 +1122,23 @@
       </c>
     </row>
     <row r="9" ht="54" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
